--- a/project/data.xlsx
+++ b/project/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyan/Documents/UM/23Fall/si618/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD07C35-97E9-B04B-B3AA-A9886CA98AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EB51BA-A80D-614C-AA5B-F2E9E0979AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="-19920" windowWidth="32760" windowHeight="19260" xr2:uid="{E7FE66A3-468E-A44D-9AAE-33B116C12B5B}"/>
   </bookViews>
@@ -592,7 +592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,6 +721,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1164,7 +1167,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -1343,8 +1346,8 @@
       <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>37</v>
+      <c r="I5" s="43" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="23" customHeight="1">
@@ -1357,7 +1360,7 @@
       <c r="H6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="42" t="s">
         <v>23</v>
       </c>
     </row>
